--- a/data/trans_dic/P56$amigo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$amigo-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.01850419906164969</v>
+        <v>0.0185041990616497</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -745,27 +745,27 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1022688441691571</v>
+        <v>0.09717658517362107</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.128869290416451</v>
+        <v>0.1201969463803583</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1469217982476456</v>
+        <v>0.1231511313560654</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03829387778913571</v>
+        <v>0.03496501779860659</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.1031874403960979</v>
+        <v>0.1004534547547441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08673361738772765</v>
+        <v>0.0847884782029328</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03258130590682225</v>
+        <v>0.0338093839483723</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0677419358234148</v>
+        <v>0.06738568374865123</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
@@ -837,17 +837,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01349697989796018</v>
+        <v>0.01473596773526305</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02301395533056993</v>
+        <v>0.02354818226040962</v>
       </c>
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01081758604812006</v>
+        <v>0.01233658427752952</v>
       </c>
     </row>
     <row r="9">
@@ -858,30 +858,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4765865240384815</v>
+        <v>0.4821915941543393</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.07667745552760695</v>
+        <v>0.07870449577992424</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.1507177373473156</v>
+        <v>0.1459724702350264</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08558364388345156</v>
+        <v>0.08870801691778579</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.195909141398793</v>
+        <v>0.2003614136158612</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.1119110717425859</v>
+        <v>0.1135159085019474</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06507887243187652</v>
+        <v>0.06952220890582168</v>
       </c>
     </row>
     <row r="10">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08008960244439994</v>
+        <v>0.08008960244439993</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06332091579466588</v>
+        <v>0.06332091579466584</v>
       </c>
     </row>
     <row r="11">
@@ -947,19 +947,19 @@
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.02218243665807901</v>
+        <v>0.02399656804593321</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.01418746271708074</v>
+        <v>0.01422588437848545</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.017754723696571</v>
+        <v>0.01763178204316592</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.02300973805955176</v>
+        <v>0.02292834817041794</v>
       </c>
     </row>
     <row r="12">
@@ -973,23 +973,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.2411178902040228</v>
+        <v>0.2735562591838582</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.1833411653900914</v>
+        <v>0.2068846291117956</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1249563691395041</v>
+        <v>0.1283421702094186</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.1553701065875333</v>
+        <v>0.1459589552442969</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1254244513442399</v>
+        <v>0.1244999326355277</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02119969886356081</v>
+        <v>0.02128678505627683</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02141020101372786</v>
+        <v>0.02532090147280174</v>
       </c>
     </row>
     <row r="15">
@@ -1089,31 +1089,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1350959934939149</v>
+        <v>0.1261821957904004</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2140941854979953</v>
+        <v>0.2272714110845065</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09371842261124924</v>
+        <v>0.1038385035511712</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.110642391606049</v>
+        <v>0.08995760117788484</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09588823022519949</v>
+        <v>0.09783987242061264</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1580692884672832</v>
+        <v>0.1604632029919809</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07111328092084178</v>
+        <v>0.07652545728071407</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08536879869186409</v>
+        <v>0.07654524164064633</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08003350356889612</v>
+        <v>0.09003909789512535</v>
       </c>
     </row>
     <row r="16">
@@ -1149,7 +1149,7 @@
         <v>0.01969543572578491</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03717615998184404</v>
+        <v>0.03717615998184405</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03608766255416745</v>
@@ -1172,36 +1172,36 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01040494868482972</v>
+        <v>0.009626596344775619</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02196044001853972</v>
+        <v>0.02159277852515854</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007504810778422361</v>
+        <v>0.007367373766466899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02350296335789327</v>
+        <v>0.02481337920161776</v>
       </c>
     </row>
     <row r="18">
@@ -1212,36 +1212,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05814385693959951</v>
+        <v>0.05795821696181744</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05547016036116886</v>
+        <v>0.05815760713793084</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04355894820224604</v>
+        <v>0.04179232966067827</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0557237795047418</v>
+        <v>0.05474552275018014</v>
       </c>
     </row>
     <row r="19">
@@ -1549,27 +1549,27 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>2668</v>
+        <v>2535</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5943</v>
+        <v>5543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5850</v>
+        <v>4904</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2520</v>
+        <v>2301</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>5851</v>
+        <v>5696</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5099</v>
+        <v>4985</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>2994</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="8">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
@@ -1685,17 +1685,17 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>999</v>
+        <v>1091</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>974</v>
+        <v>997</v>
       </c>
       <c r="L10" s="6" t="inlineStr"/>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1085</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11">
@@ -1706,30 +1706,30 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7133</v>
+        <v>7217</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>2013</v>
+        <v>2066</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6189</v>
+        <v>5994</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6336</v>
+        <v>6568</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8294</v>
+        <v>8483</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>6778</v>
+        <v>6875</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6527</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="12">
@@ -1839,19 +1839,19 @@
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>936</v>
+        <v>1013</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>1629</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="15">
@@ -1865,23 +1865,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5575</v>
+        <v>6325</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7736</v>
+        <v>8730</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5959</v>
+        <v>6121</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>8727</v>
+        <v>8199</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>8882</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="16">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2591</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="19">
@@ -2025,31 +2025,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>4474</v>
+        <v>4178</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6881</v>
+        <v>7305</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4805</v>
+        <v>5324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6180</v>
+        <v>5025</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8429</v>
+        <v>8600</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7177</v>
+        <v>7286</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5178</v>
+        <v>5572</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>6138</v>
+        <v>5504</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9685</v>
+        <v>10896</v>
       </c>
     </row>
     <row r="20">
@@ -2152,36 +2152,36 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2136</v>
+        <v>1976</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6049</v>
+        <v>5947</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2129</v>
+        <v>2090</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>977</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9025</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="23">
@@ -2192,36 +2192,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11934</v>
+        <v>11896</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15278</v>
+        <v>16018</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>12360</v>
+        <v>11859</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21398</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="24">
